--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_4.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_0</t>
+          <t>model_34_4_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999876623562002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991540216265847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887785242719</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998367876211538</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999289380969381</v>
       </c>
       <c r="G2" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.151664892710862e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007896836774243081</v>
       </c>
       <c r="I2" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.996498373012899e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.597812860322679e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.598731348811986e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001976806652588941</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003393618854130296</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010210463834</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.0035380922345101</v>
       </c>
       <c r="P2" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7434336735156</v>
       </c>
       <c r="Q2" t="n">
-        <v>194.450305494627</v>
+        <v>193.3438523915302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_22</t>
+          <t>model_34_4_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999876663221225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991539867184668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887794981881</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998368461732161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999289619801198</v>
       </c>
       <c r="G3" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.151294691269752e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007897162626201774</v>
       </c>
       <c r="I3" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.995977934671491e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.595445910265186e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.597521851866168e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001977423989366159</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003393073372725311</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010207181692</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003537523530832404</v>
       </c>
       <c r="P3" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7440766747161</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.450305494627</v>
+        <v>193.3444953927307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_21</t>
+          <t>model_34_4_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999876708105768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991539477635631</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887812344838</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998369096100869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999289891515357</v>
       </c>
       <c r="G4" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.150875713764169e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007897526253127379</v>
       </c>
       <c r="I4" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.995050098221894e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.592881493244601e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.596145831492126e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001978094811657925</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003392455915357145</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010203467109</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003536879787025762</v>
       </c>
       <c r="P4" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7448046443039</v>
       </c>
       <c r="Q4" t="n">
-        <v>194.450305494627</v>
+        <v>193.3452233623185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_20</t>
+          <t>model_34_4_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999876756217475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.999153901514043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887823765123</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998369838659263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999290184547431</v>
       </c>
       <c r="G5" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.150426612105004e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007897957972096619</v>
       </c>
       <c r="I5" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.994439824399512e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.589879722572822e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.594661852506386e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001978952720994483</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003391793938471209</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001019948545</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00353618962841331</v>
       </c>
       <c r="P5" t="n">
-        <v>129.8498867766124</v>
+        <v>128.745585248677</v>
       </c>
       <c r="Q5" t="n">
-        <v>194.450305494627</v>
+        <v>193.3460039666916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_19</t>
+          <t>model_34_4_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999876807598022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991538502360654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887846769454</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998370587667463</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999290500110987</v>
       </c>
       <c r="G6" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.149946997257069e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007898436629509265</v>
       </c>
       <c r="I6" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.993210525942024e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.586851878746924e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.593063769126128e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001979749523004676</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00339108684238117</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010195233267</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003535452429778827</v>
       </c>
       <c r="P6" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7464192259978</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.450305494627</v>
+        <v>193.3468379440124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_18</t>
+          <t>model_34_4_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999876866857526</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991537944711021</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887880168044</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998371537387668</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999290865478057</v>
       </c>
       <c r="G7" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.14939383580152e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007898957170964239</v>
       </c>
       <c r="I7" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.991425782152514e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.583012662492147e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.591213469779496e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001980775344036756</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003390271133407357</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010190329032</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003534601994385248</v>
       </c>
       <c r="P7" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7473815217275</v>
       </c>
       <c r="Q7" t="n">
-        <v>194.450305494627</v>
+        <v>193.3478002397422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_17</t>
+          <t>model_34_4_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999876937483948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991537329595779</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887895399517</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998372620977738</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999291302078386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.148734569146098e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000789953135404174</v>
       </c>
       <c r="I8" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.990611847276967e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.57863228120689e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.589002429514356e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001981659791030102</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003389298702012111</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010184484087</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003533588164572297</v>
       </c>
       <c r="P8" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7485290062146</v>
       </c>
       <c r="Q8" t="n">
-        <v>194.450305494627</v>
+        <v>193.3489477242292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_16</t>
+          <t>model_34_4_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999877008010044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991536630405096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887916068128</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998373605228402</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.999929174437545</v>
       </c>
       <c r="G9" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.148076238993611e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007900184017853967</v>
       </c>
       <c r="I9" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.989507364329949e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.574653476572846e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.586762539720963e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001982849093352167</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003388327373489183</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010178647445</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003532575484583221</v>
       </c>
       <c r="P9" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7496755180095</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.450305494627</v>
+        <v>193.3500942360241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_15</t>
+          <t>model_34_4_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999877085113816</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991535805360465</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999999999999987</v>
+        <v>0.999988794238875</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998374817280659</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999292234204425</v>
       </c>
       <c r="G10" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.147356509121058e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007900954160800792</v>
       </c>
       <c r="I10" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.988100850850335e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.56975379063963e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.584281937862331e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000198415398016991</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003387265134472142</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010172266443</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003531468023852086</v>
       </c>
       <c r="P10" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7509297127085</v>
       </c>
       <c r="Q10" t="n">
-        <v>194.450305494627</v>
+        <v>193.3513484307231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_14</t>
+          <t>model_34_4_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999877174416304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991534954117418</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999887995421036</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998376186738265</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999292804974529</v>
       </c>
       <c r="G11" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.146522909606211e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007901748758820221</v>
       </c>
       <c r="I11" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.985266927474495e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.564217798171364e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.581391432296638e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001985559222447593</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003386034420389449</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010164875892</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003530184915722964</v>
       </c>
       <c r="P11" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7523833192838</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.450305494627</v>
+        <v>193.3528020372985</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_13</t>
+          <t>model_34_4_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999877270918864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991533996713023</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888032483163</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998377770398512</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999293460388898</v>
       </c>
       <c r="G12" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.145622100558305e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007902642453797501</v>
       </c>
       <c r="I12" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.983286412751196e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.557815897761952e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.578072269518536e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001987125352822488</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003384703976063941</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010156889473</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003528797831628119</v>
       </c>
       <c r="P12" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7539553124872</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.450305494627</v>
+        <v>193.3543740305018</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_23</t>
+          <t>model_34_4_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999987737931563</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991532968085612</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888077052502</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998379426912425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.999929413859666</v>
       </c>
       <c r="G13" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.144610264332077e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007903602632333905</v>
       </c>
       <c r="I13" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.980904729816608e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.551119488534254e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.574637675972626e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001988817669524359</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003383208926939152</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010147918706</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00352723913516691</v>
       </c>
       <c r="P13" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7557225328052</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.450305494627</v>
+        <v>193.3561412508199</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999877488201143</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991531846650248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888104516834</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998381212947931</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999294872386809</v>
       </c>
       <c r="G14" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.143593865864582e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007904649443022007</v>
       </c>
       <c r="I14" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.97943709910284e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.543899492041624e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.570921600975954e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001990968729436091</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003381706471390712</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010138907492</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00352567271697526</v>
       </c>
       <c r="P14" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7574992948011</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.450305494627</v>
+        <v>193.3579180128158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_10</t>
+          <t>model_34_4_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999877609315424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991530579577879</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888142821026</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998383235339181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999295699774435</v>
       </c>
       <c r="G15" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.142463317219068e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007905832199460816</v>
       </c>
       <c r="I15" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.977390211267994e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.535724034338448e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.566731527732624e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001993162937338847</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003380034492751617</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010128884241</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003523929558744027</v>
       </c>
       <c r="P15" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7594774583327</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.450305494627</v>
+        <v>193.3598961763473</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_9</t>
+          <t>model_34_4_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999877745727498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991529152339595</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888198850226</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998385534110865</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999296637278533</v>
       </c>
       <c r="G16" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.14118997038844e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007907164463748569</v>
       </c>
       <c r="I16" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.974396139737485e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.526431316784858e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.561983800412024e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001995516877583036</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003378150337667701</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010117594966</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00352196519127745</v>
       </c>
       <c r="P16" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7617078266106</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.450305494627</v>
+        <v>193.3621265446252</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_8</t>
+          <t>model_34_4_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999877889386443</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991527575756926</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888244476232</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998387991865245</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999297672091879</v>
       </c>
       <c r="G17" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.139848977189754e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007908636134467632</v>
       </c>
       <c r="I17" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.971957991044231e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.516495916313828e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.556743277616528e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0001998239820838835</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003376164950338999</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001010570595</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003519895281899847</v>
       </c>
       <c r="P17" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7640593749778</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.450305494627</v>
+        <v>193.3644780929924</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_7</t>
+          <t>model_34_4_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999878044373754</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991525807684551</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888290251715</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998390732623393</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999298779344248</v>
       </c>
       <c r="G18" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.138402238673737e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007910286552419776</v>
       </c>
       <c r="I18" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.969511854555017e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.505416481356681e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.551135907645987e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002001215500711632</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003374021693281976</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010092879413</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003517660781952752</v>
       </c>
       <c r="P18" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7665994613395</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.450305494627</v>
+        <v>193.3670181793541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_6</t>
+          <t>model_34_4_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999878208833801</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991523786453645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888342023173</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998393898523116</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999300060771571</v>
       </c>
       <c r="G19" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.136867076327615e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007912173282748486</v>
       </c>
       <c r="I19" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.96674530698647e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.492618423971178e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.544646477334913e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002004500439966159</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003371745951769817</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010079268927</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003515288157412986</v>
       </c>
       <c r="P19" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7692983287992</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.450305494627</v>
+        <v>193.3697170468138</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_5</t>
+          <t>model_34_4_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999878383544399</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991521613796114</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888396250035</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998397293394992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999301444345504</v>
       </c>
       <c r="G20" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.135236229576538e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000791420136318518</v>
       </c>
       <c r="I20" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.963847548284189e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.478894753327277e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.537639754077848e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002008309074594027</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003369326682850058</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010064810119</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003512765895206736</v>
       </c>
       <c r="P20" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7721694078156</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.450305494627</v>
+        <v>193.3725881258302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_4</t>
+          <t>model_34_4_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999987856241785</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991519200782415</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888443972433</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998401015967392</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999302935030644</v>
       </c>
       <c r="G21" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.133566524434864e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007916453805554</v>
       </c>
       <c r="I21" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.961297373125681e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.46384636286062e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.53009059607314e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002012441513324867</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003366847968701384</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010050006799</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003510181657065107</v>
       </c>
       <c r="P21" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7751131726539</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.450305494627</v>
+        <v>193.3755318906686</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_3</t>
+          <t>model_34_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999878752619502</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991516543472991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888490641683</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998405087968725</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999304595883601</v>
       </c>
       <c r="G22" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.131791075496903e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007918934287258548</v>
       </c>
       <c r="I22" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.958803475873555e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.447385416120226e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.521679670745519e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002016987893774699</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00336421027210979</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010034265972</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003507431668268824</v>
       </c>
       <c r="P22" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7782481290097</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.450305494627</v>
+        <v>193.3786668470243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_2</t>
+          <t>model_34_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999878948447194</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991513600525025</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888541064439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998409627699856</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999306443626685</v>
       </c>
       <c r="G23" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.129963109951798e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007921681400005142</v>
       </c>
       <c r="I23" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.956108999825227e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.429033685293041e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.512322292637781e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000202206236021464</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003361492391709072</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010018059543</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00350459808207266</v>
       </c>
       <c r="P23" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7814809576785</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.450305494627</v>
+        <v>193.3818996756931</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_1</t>
+          <t>model_34_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999987914532241</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991510377868696</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888577753734</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.999841460546868</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999308449714811</v>
       </c>
       <c r="G24" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.128125366228191e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007924689608229024</v>
       </c>
       <c r="I24" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.954148408357106e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.408911199860013e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.502163020347862e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002027753951497806</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003358757755820135</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010001766421</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003501747027072455</v>
       </c>
       <c r="P24" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7847363555935</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.450305494627</v>
+        <v>193.3851550736082</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_11</t>
+          <t>model_34_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999879341700858</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991506813767534</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888612725744</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998420099099031</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999310660787938</v>
       </c>
       <c r="G25" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.12629225961689e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007928016540218365</v>
       </c>
       <c r="I25" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.952279584639225e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.386703359225607e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.490965658844765e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000203413210366979</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003356027800267587</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009985514412</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003498900851660247</v>
       </c>
       <c r="P25" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7879888266429</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.450305494627</v>
+        <v>193.3884075446575</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_34_4_24</t>
+          <t>model_34_4_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999879522841771</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991502856752105</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999999999999987</v>
+        <v>0.9999888626223963</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999936084925743</v>
+        <v>0.9998426053683871</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999970344141728</v>
+        <v>0.9999313044507985</v>
       </c>
       <c r="G26" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.124601388706371e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0007931710240428862</v>
       </c>
       <c r="I26" t="n">
-        <v>4.301709645710098e-15</v>
+        <v>5.951558270856213e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>3.015138749530545e-06</v>
+        <v>6.36263212350784e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.507569348768569e-06</v>
+        <v>3.478893975296731e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002041111299161677</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003353507698971886</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00000997052344</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003496273464435059</v>
       </c>
       <c r="P26" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7909936265006</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.450305494627</v>
+        <v>193.3914123445152</v>
       </c>
     </row>
   </sheetData>
